--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -450,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>29</v>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C2">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Vikings/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Vikings/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
